--- a/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-matrix.rule.xlsx
+++ b/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-matrix.rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\nop-rule-core\src\test\resources\_vfs\nop\rule\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C8D40C-3428-429C-8940-47877C692D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C996E19F-09B5-4D72-B29A-5A0C9F638DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rule" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>中文名</t>
   </si>
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,6 +308,10 @@
     <t>执行前：每次执行规则时调用的初始化代码，可以在其中进行预处理，定义局部可用的函数等。
 计算：表示变量值是计算得到而不是由调用者传入。计算表达式在【执行前】之后执行
 汇总：当存在多个匹配输出时，用于指定如何对同名的输出变量进行汇总。可以配置min/max/sum/list/first/last等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'A'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,35 +563,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,56 +629,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -952,30 +952,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
@@ -984,19 +984,19 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="23">
         <v>2</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="2">
         <v>3</v>
       </c>
@@ -1005,17 +1005,17 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="23">
         <v>6</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="2">
         <v>7</v>
       </c>
@@ -1024,19 +1024,19 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="23">
         <v>10</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="2">
         <v>11</v>
       </c>
@@ -1045,39 +1045,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="16">
         <v>13</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="16">
         <v>15</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3">
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="38"/>
+        <v>55</v>
+      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="3">
         <v>16</v>
       </c>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA36EB92-02AD-4172-AFC5-C8CB974C540A}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1122,79 +1122,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -1210,11 +1210,11 @@
       <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1230,42 +1230,42 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
@@ -1328,7 +1328,9 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="8" t="s">
         <v>10</v>
@@ -1354,7 +1356,9 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="8" t="s">
         <v>22</v>
@@ -1376,12 +1380,12 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="8" t="s">
@@ -1400,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="5" t="s">
@@ -1424,48 +1428,48 @@
         <v>31</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="25"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
@@ -1575,21 +1579,21 @@
     </row>
     <row r="20" spans="1:16">
       <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="96" customHeight="1">
+      <c r="B21" s="29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="96" customHeight="1">
-      <c r="B21" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-matrix.rule.xlsx
+++ b/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-matrix.rule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\nop-rule-core\src\test\resources\_vfs\nop\rule\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\nop-rule-service\cases\io\nop\rule\service\entity\TestNopRuleDefinitionBizModel\testDecisionMatrix\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C996E19F-09B5-4D72-B29A-5A0C9F638DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14A9BA-F2E4-4BBE-A540-BA9410911316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,23 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>var=是否有房</t>
+          <t>var=是否有房
+valueExpr=true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D073B28E-C4B8-49CC-9C79-8ACCD5F82E30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>valueExpr=false</t>
         </r>
       </text>
     </comment>
@@ -88,8 +104,36 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">var=gender
-</t>
+          <t>var=gender
+valueExpr=1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{B770BA5F-4CFD-4763-83DA-C5C435D44774}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>valueExpr=2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{C89929EE-52D5-496B-A17A-C435DE1B922F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>valueExpr=1</t>
         </r>
       </text>
     </comment>
@@ -98,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>中文名</t>
   </si>
@@ -201,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +318,6 @@
   </si>
   <si>
     <t>基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,6 +344,38 @@
   </si>
   <si>
     <t xml:space="preserve"> 'A'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Age </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   *age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   *gender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +420,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -937,7 +1008,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -957,12 +1028,12 @@
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="22"/>
       <c r="F1" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="19"/>
     </row>
@@ -970,25 +1041,25 @@
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1007,7 +1078,7 @@
     <row r="4" spans="1:7">
       <c r="A4" s="21"/>
       <c r="B4" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -1025,10 +1096,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
@@ -1046,25 +1117,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="16">
         <v>13</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="16">
         <v>15</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1075,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="3">
@@ -1105,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA36EB92-02AD-4172-AFC5-C8CB974C540A}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1191,7 +1262,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
@@ -1211,7 +1282,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
@@ -1336,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -1380,18 +1451,20 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="5"/>
@@ -1403,17 +1476,17 @@
       <c r="A12" s="8">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="8" t="s">
@@ -1424,187 +1497,245 @@
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="12"/>
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="8">
+    <row r="18" spans="1:16">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="8">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="8">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="96" customHeight="1">
-      <c r="B21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="96" customHeight="1">
+      <c r="B23" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B23:J23"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A16:P16"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:P3"/>
     <mergeCell ref="A7:P7"/>

--- a/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-matrix.rule.xlsx
+++ b/nop-rule/nop-rule-core/src/test/resources/_vfs/nop/rule/test/test-matrix.rule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\nop-rule-service\cases\io\nop\rule\service\entity\TestNopRuleDefinitionBizModel\testDecisionMatrix\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-rule\nop-rule-core\src\test\resources\_vfs\nop\rule\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14A9BA-F2E4-4BBE-A540-BA9410911316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127FAE5C-DA75-4898-9884-A7437EB74EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rule" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>中文名</t>
   </si>
@@ -383,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,22 +1007,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="1" t="s">
@@ -1054,7 +1054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="14" t="s">
         <v>40</v>
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>41</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>42</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="17"/>
@@ -1178,21 +1178,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA36EB92-02AD-4172-AFC5-C8CB974C540A}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" customWidth="1"/>
-    <col min="2" max="2" width="5.9140625" customWidth="1"/>
-    <col min="3" max="3" width="4.25" customWidth="1"/>
-    <col min="5" max="5" width="6.08203125" customWidth="1"/>
-    <col min="13" max="13" width="12.58203125" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="O3" s="39"/>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>48</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>49</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -1318,7 +1318,7 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="O7" s="34"/>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>5</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1582,7 +1582,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -1667,9 +1667,7 @@
         <v>31</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="I18" s="8"/>
       <c r="J18" s="5" t="s">
         <v>57</v>
       </c>
@@ -1680,7 +1678,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -1695,9 +1693,7 @@
         <v>33</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="I19" s="8"/>
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1708,12 +1704,12 @@
       <c r="O19" s="5"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="96" customHeight="1">
+    <row r="23" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>51</v>
       </c>
